--- a/src/main/resources/CompilerDictionary/LocatorDictionary/DownloadPage_MobileAndEdgePageLocators.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/DownloadPage_MobileAndEdgePageLocators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADEEB95-C32A-684A-9E5F-E6302C45D0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FE853-5E0B-2E42-9892-B8E1BE4D4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{709F50E0-3FB8-B841-8E27-AC9E277447B3}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{709F50E0-3FB8-B841-8E27-AC9E277447B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Sno</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>div[data-post-label="edgeserverenterprise"] a.cta-btn</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF90313-E252-2541-B218-6BE9AFCB595C}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +562,7 @@
     <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +572,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,8 +586,11 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -588,8 +600,11 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -599,8 +614,11 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -610,8 +628,11 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -621,8 +642,11 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -632,8 +656,11 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -643,8 +670,11 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -654,8 +684,11 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -665,8 +698,11 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -676,8 +712,11 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -687,8 +726,11 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -698,8 +740,11 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -709,8 +754,11 @@
       <c r="C14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -720,8 +768,11 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -731,8 +782,11 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -742,8 +796,11 @@
       <c r="C17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -753,8 +810,11 @@
       <c r="C18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -764,8 +824,11 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -775,8 +838,11 @@
       <c r="C20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -785,6 +851,9 @@
       </c>
       <c r="C21" t="s">
         <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
